--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/123/word_level_predictions_123.xlsx
@@ -2409,11 +2409,11 @@
         </is>
       </c>
       <c r="I38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K38" s="2" t="b">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="I39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K39" s="2" t="b">
@@ -2513,11 +2513,11 @@
         </is>
       </c>
       <c r="I40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K40" s="2" t="b">
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="I41" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K41" s="2" t="b">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G42" s="2" t="b">
@@ -2617,11 +2617,11 @@
         </is>
       </c>
       <c r="I42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K42" s="2" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G43" s="2" t="b">
@@ -2669,11 +2669,11 @@
         </is>
       </c>
       <c r="I43" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K43" s="2" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2721,11 +2721,11 @@
         </is>
       </c>
       <c r="I44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K44" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,291 +12693,291 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/123/word_level_predictions_123.xlsx
@@ -2409,11 +2409,11 @@
         </is>
       </c>
       <c r="I38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K38" s="2" t="b">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="I39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K39" s="2" t="b">
@@ -2513,11 +2513,11 @@
         </is>
       </c>
       <c r="I40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K40" s="2" t="b">
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="I41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K41" s="2" t="b">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" s="2" t="b">
@@ -2617,11 +2617,11 @@
         </is>
       </c>
       <c r="I42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K42" s="2" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" s="2" t="b">
@@ -2669,11 +2669,11 @@
         </is>
       </c>
       <c r="I43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K43" s="2" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2721,11 +2721,11 @@
         </is>
       </c>
       <c r="I44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K44" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,291 +12693,291 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
